--- a/FigureData/fitting_period_data(Figure_345).xlsx
+++ b/FigureData/fitting_period_data(Figure_345).xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
